--- a/ConvertedEqual/California_Converted.xlsx
+++ b/ConvertedEqual/California_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="293">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -859,6 +859,42 @@
   <si>
     <t>9/29/2020</t>
   </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1219,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT221"/>
+  <dimension ref="A1:AT233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,22 +1872,22 @@
         <v>0.2</v>
       </c>
       <c r="T7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1893,7 +1929,7 @@
         <v>0.1111111111</v>
       </c>
       <c r="AM7">
-        <v>0.1428571429</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>0.25</v>
@@ -1914,7 +1950,7 @@
         <v>0.2</v>
       </c>
       <c r="AT7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -3459,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AT19">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -3599,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AT20">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -3739,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -3879,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -4019,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4159,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -4299,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4439,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -4579,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4719,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -4859,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4999,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="31" spans="1:46">
@@ -5139,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="32" spans="1:46">
@@ -5279,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="33" spans="1:46">
@@ -5419,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="34" spans="1:46">
@@ -5559,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -5699,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -5839,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="37" spans="1:46">
@@ -5979,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -6119,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="39" spans="1:46">
@@ -6259,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -6399,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -6539,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -6679,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -6819,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="44" spans="1:46">
@@ -6959,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="45" spans="1:46">
@@ -7099,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="46" spans="1:46">
@@ -7239,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="47" spans="1:46">
@@ -7379,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="48" spans="1:46">
@@ -7519,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="49" spans="1:46">
@@ -7659,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="50" spans="1:46">
@@ -7799,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="51" spans="1:46">
@@ -7939,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="52" spans="1:46">
@@ -8079,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="53" spans="1:46">
@@ -8219,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="54" spans="1:46">
@@ -8359,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="55" spans="1:46">
@@ -8499,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="56" spans="1:46">
@@ -8639,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="57" spans="1:46">
@@ -8779,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="AT57">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="58" spans="1:46">
@@ -8919,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="59" spans="1:46">
@@ -9059,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="AT59">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="60" spans="1:46">
@@ -9199,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="61" spans="1:46">
@@ -9339,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="62" spans="1:46">
@@ -9479,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="63" spans="1:46">
@@ -9619,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="64" spans="1:46">
@@ -9759,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="65" spans="1:46">
@@ -9899,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="66" spans="1:46">
@@ -10039,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="67" spans="1:46">
@@ -10179,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="68" spans="1:46">
@@ -10319,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="AT68">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="69" spans="1:46">
@@ -10459,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="70" spans="1:46">
@@ -10599,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="71" spans="1:46">
@@ -10739,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="72" spans="1:46">
@@ -10879,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="73" spans="1:46">
@@ -11019,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="74" spans="1:46">
@@ -11159,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="75" spans="1:46">
@@ -11299,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="76" spans="1:46">
@@ -11439,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="77" spans="1:46">
@@ -11579,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>0.8197802197846149</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="78" spans="1:46">
@@ -11719,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>0.7978021977999995</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="79" spans="1:46">
@@ -11859,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>0.7978021977999995</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="80" spans="1:46">
@@ -11999,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.7978021977999995</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="81" spans="1:46">
@@ -12139,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>0.7978021977999995</v>
+        <v>0.8166666666499994</v>
       </c>
     </row>
     <row r="82" spans="1:46">
@@ -12279,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="83" spans="1:46">
@@ -12419,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="84" spans="1:46">
@@ -12559,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="AT84">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="85" spans="1:46">
@@ -12699,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="86" spans="1:46">
@@ -12839,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="87" spans="1:46">
@@ -12979,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="AT87">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="88" spans="1:46">
@@ -13119,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="89" spans="1:46">
@@ -13259,7 +13295,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="90" spans="1:46">
@@ -13399,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="91" spans="1:46">
@@ -13539,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="92" spans="1:46">
@@ -13679,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="93" spans="1:46">
@@ -13819,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="94" spans="1:46">
@@ -13959,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>0.7590354090307686</v>
+        <v>0.7865740740583328</v>
       </c>
     </row>
     <row r="95" spans="1:46">
@@ -14099,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>0.6821123321076918</v>
+        <v>0.7032407407249995</v>
       </c>
     </row>
     <row r="96" spans="1:46">
@@ -14239,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="97" spans="1:46">
@@ -14379,7 +14415,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="98" spans="1:46">
@@ -14519,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="AT98">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="99" spans="1:46">
@@ -14659,7 +14695,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="100" spans="1:46">
@@ -14799,7 +14835,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="101" spans="1:46">
@@ -14939,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="102" spans="1:46">
@@ -15079,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="103" spans="1:46">
@@ -15219,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="104" spans="1:46">
@@ -15359,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="AT104">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="105" spans="1:46">
@@ -15499,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="106" spans="1:46">
@@ -15639,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="AT106">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="107" spans="1:46">
@@ -15779,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="108" spans="1:46">
@@ -15919,7 +15955,7 @@
         <v>1</v>
       </c>
       <c r="AT108">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="109" spans="1:46">
@@ -16059,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="110" spans="1:46">
@@ -16199,7 +16235,7 @@
         <v>1</v>
       </c>
       <c r="AT110">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="111" spans="1:46">
@@ -16339,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="AT111">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="112" spans="1:46">
@@ -16479,7 +16515,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.6650183150153842</v>
+        <v>0.6847222222083329</v>
       </c>
     </row>
     <row r="113" spans="1:46">
@@ -16619,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="AT113">
-        <v>0.3290598290538461</v>
+        <v>0.356481481475</v>
       </c>
     </row>
     <row r="114" spans="1:46">
@@ -16759,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="AT114">
-        <v>0.3290598290538461</v>
+        <v>0.356481481475</v>
       </c>
     </row>
     <row r="115" spans="1:46">
@@ -16899,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="AT115">
-        <v>0.3290598290538461</v>
+        <v>0.356481481475</v>
       </c>
     </row>
     <row r="116" spans="1:46">
@@ -17039,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="AT116">
-        <v>0.3290598290538461</v>
+        <v>0.356481481475</v>
       </c>
     </row>
     <row r="117" spans="1:46">
@@ -17179,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="AT117">
-        <v>0.3290598290538461</v>
+        <v>0.356481481475</v>
       </c>
     </row>
     <row r="118" spans="1:46">
@@ -17319,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="AT118">
-        <v>0.405982905976923</v>
+        <v>0.4398148148083333</v>
       </c>
     </row>
     <row r="119" spans="1:46">
@@ -17459,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="AT119">
-        <v>0.405982905976923</v>
+        <v>0.4398148148083333</v>
       </c>
     </row>
     <row r="120" spans="1:46">
@@ -17599,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="AT120">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="121" spans="1:46">
@@ -17739,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="AT121">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="122" spans="1:46">
@@ -17879,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="AT122">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="123" spans="1:46">
@@ -18019,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="AT123">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="124" spans="1:46">
@@ -18159,7 +18195,7 @@
         <v>0</v>
       </c>
       <c r="AT124">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="125" spans="1:46">
@@ -18299,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="AT125">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="126" spans="1:46">
@@ -18439,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="AT126">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="127" spans="1:46">
@@ -18579,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="AT127">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="128" spans="1:46">
@@ -18719,7 +18755,7 @@
         <v>0</v>
       </c>
       <c r="AT128">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="129" spans="1:46">
@@ -18859,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="AT129">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="130" spans="1:46">
@@ -18999,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="AT130">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="131" spans="1:46">
@@ -19139,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="AT131">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="132" spans="1:46">
@@ -19279,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="AT132">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="133" spans="1:46">
@@ -19419,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="AT133">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="134" spans="1:46">
@@ -19559,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="AT134">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="135" spans="1:46">
@@ -19699,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="AT135">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="136" spans="1:46">
@@ -19839,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="AT136">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="137" spans="1:46">
@@ -19979,7 +20015,7 @@
         <v>0</v>
       </c>
       <c r="AT137">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="138" spans="1:46">
@@ -20119,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="AT138">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="139" spans="1:46">
@@ -20259,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="AT139">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="140" spans="1:46">
@@ -20399,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="AT140">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="141" spans="1:46">
@@ -20539,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="AT141">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="142" spans="1:46">
@@ -20679,7 +20715,7 @@
         <v>0</v>
       </c>
       <c r="AT142">
-        <v>0.3525641025615384</v>
+        <v>0.3819444444416666</v>
       </c>
     </row>
     <row r="143" spans="1:46">
@@ -20819,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="AT143">
-        <v>0.4282051281999999</v>
+        <v>0.4638888888833332</v>
       </c>
     </row>
     <row r="144" spans="1:46">
@@ -20959,7 +20995,7 @@
         <v>0</v>
       </c>
       <c r="AT144">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="145" spans="1:46">
@@ -21099,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="AT145">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="146" spans="1:46">
@@ -21239,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="AT146">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="147" spans="1:46">
@@ -21379,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="AT147">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="148" spans="1:46">
@@ -21519,7 +21555,7 @@
         <v>0</v>
       </c>
       <c r="AT148">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="149" spans="1:46">
@@ -21659,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="AT149">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="150" spans="1:46">
@@ -21799,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="AT150">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="151" spans="1:46">
@@ -21939,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="AT151">
-        <v>0.4089743589692307</v>
+        <v>0.4430555555499999</v>
       </c>
     </row>
     <row r="152" spans="1:46">
@@ -22079,7 +22115,7 @@
         <v>0</v>
       </c>
       <c r="AT152">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="153" spans="1:46">
@@ -22219,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="AT153">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="154" spans="1:46">
@@ -22359,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="AT154">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="155" spans="1:46">
@@ -22499,7 +22535,7 @@
         <v>0</v>
       </c>
       <c r="AT155">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="156" spans="1:46">
@@ -22639,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="AT156">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="157" spans="1:46">
@@ -22779,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="AT157">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="158" spans="1:46">
@@ -22919,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="AT158">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="159" spans="1:46">
@@ -23059,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="AT159">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="160" spans="1:46">
@@ -23199,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="AT160">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="161" spans="1:46">
@@ -23339,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="AT161">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="162" spans="1:46">
@@ -23479,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="AT162">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="163" spans="1:46">
@@ -23619,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="AT163">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="164" spans="1:46">
@@ -23759,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="AT164">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="165" spans="1:46">
@@ -23899,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="AT165">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="166" spans="1:46">
@@ -24039,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="AT166">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="167" spans="1:46">
@@ -24179,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="AT167">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="168" spans="1:46">
@@ -24319,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="AT168">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="169" spans="1:46">
@@ -24459,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="AT169">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="170" spans="1:46">
@@ -24599,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="AT170">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="171" spans="1:46">
@@ -24739,7 +24775,7 @@
         <v>0</v>
       </c>
       <c r="AT171">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="172" spans="1:46">
@@ -24879,7 +24915,7 @@
         <v>0</v>
       </c>
       <c r="AT172">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="173" spans="1:46">
@@ -25019,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="AT173">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="174" spans="1:46">
@@ -25159,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="AT174">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="175" spans="1:46">
@@ -25299,7 +25335,7 @@
         <v>0</v>
       </c>
       <c r="AT175">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="176" spans="1:46">
@@ -25439,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="AT176">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="177" spans="1:46">
@@ -25579,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="AT177">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="178" spans="1:46">
@@ -25719,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="AT178">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="179" spans="1:46">
@@ -25859,7 +25895,7 @@
         <v>0</v>
       </c>
       <c r="AT179">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="180" spans="1:46">
@@ -25999,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="AT180">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="181" spans="1:46">
@@ -26139,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="AT181">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="182" spans="1:46">
@@ -26279,7 +26315,7 @@
         <v>0</v>
       </c>
       <c r="AT182">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="183" spans="1:46">
@@ -26419,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="AT183">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="184" spans="1:46">
@@ -26559,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="AT184">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="185" spans="1:46">
@@ -26699,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="AT185">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="186" spans="1:46">
@@ -26839,7 +26875,7 @@
         <v>0</v>
       </c>
       <c r="AT186">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="187" spans="1:46">
@@ -26979,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="AT187">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="188" spans="1:46">
@@ -27119,7 +27155,7 @@
         <v>0</v>
       </c>
       <c r="AT188">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="189" spans="1:46">
@@ -27259,7 +27295,7 @@
         <v>0</v>
       </c>
       <c r="AT189">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="190" spans="1:46">
@@ -27399,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="AT190">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="191" spans="1:46">
@@ -27539,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="AT191">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="192" spans="1:46">
@@ -27679,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="AT192">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="193" spans="1:46">
@@ -27819,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="AT193">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="194" spans="1:46">
@@ -27959,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="AT194">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="195" spans="1:46">
@@ -28099,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="AT195">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="196" spans="1:46">
@@ -28239,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="AT196">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="197" spans="1:46">
@@ -28379,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="AT197">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="198" spans="1:46">
@@ -28519,7 +28555,7 @@
         <v>0</v>
       </c>
       <c r="AT198">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="199" spans="1:46">
@@ -28659,7 +28695,7 @@
         <v>0</v>
       </c>
       <c r="AT199">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="200" spans="1:46">
@@ -28799,7 +28835,7 @@
         <v>0</v>
       </c>
       <c r="AT200">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="201" spans="1:46">
@@ -28939,7 +28975,7 @@
         <v>0</v>
       </c>
       <c r="AT201">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="202" spans="1:46">
@@ -29079,7 +29115,7 @@
         <v>0</v>
       </c>
       <c r="AT202">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="203" spans="1:46">
@@ -29219,7 +29255,7 @@
         <v>0</v>
       </c>
       <c r="AT203">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="204" spans="1:46">
@@ -29359,7 +29395,7 @@
         <v>0</v>
       </c>
       <c r="AT204">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="205" spans="1:46">
@@ -29499,7 +29535,7 @@
         <v>0</v>
       </c>
       <c r="AT205">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="206" spans="1:46">
@@ -29639,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="AT206">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="207" spans="1:46">
@@ -29779,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="AT207">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="208" spans="1:46">
@@ -29919,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="AT208">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="209" spans="1:46">
@@ -30059,7 +30095,7 @@
         <v>0</v>
       </c>
       <c r="AT209">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="210" spans="1:46">
@@ -30199,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="AT210">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="211" spans="1:46">
@@ -30339,7 +30375,7 @@
         <v>0</v>
       </c>
       <c r="AT211">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="212" spans="1:46">
@@ -30479,7 +30515,7 @@
         <v>0</v>
       </c>
       <c r="AT212">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="213" spans="1:46">
@@ -30619,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="AT213">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="214" spans="1:46">
@@ -30759,7 +30795,7 @@
         <v>0</v>
       </c>
       <c r="AT214">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="215" spans="1:46">
@@ -30899,7 +30935,7 @@
         <v>0</v>
       </c>
       <c r="AT215">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="216" spans="1:46">
@@ -31039,7 +31075,7 @@
         <v>0</v>
       </c>
       <c r="AT216">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="217" spans="1:46">
@@ -31179,7 +31215,7 @@
         <v>0</v>
       </c>
       <c r="AT217">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="218" spans="1:46">
@@ -31319,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="AT218">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="219" spans="1:46">
@@ -31459,7 +31495,7 @@
         <v>0</v>
       </c>
       <c r="AT219">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="220" spans="1:46">
@@ -31599,7 +31635,7 @@
         <v>0</v>
       </c>
       <c r="AT220">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
       </c>
     </row>
     <row r="221" spans="1:46">
@@ -31739,7 +31775,1687 @@
         <v>0</v>
       </c>
       <c r="AT221">
-        <v>0.391880341876923</v>
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:46">
+      <c r="A222" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+      <c r="AD222">
+        <v>1</v>
+      </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>1</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0</v>
+      </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
+      <c r="AP222">
+        <v>0</v>
+      </c>
+      <c r="AQ222">
+        <v>0</v>
+      </c>
+      <c r="AR222">
+        <v>0</v>
+      </c>
+      <c r="AS222">
+        <v>0</v>
+      </c>
+      <c r="AT222">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="223" spans="1:46">
+      <c r="A223" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
+      </c>
+      <c r="AD223">
+        <v>1</v>
+      </c>
+      <c r="AE223">
+        <v>1</v>
+      </c>
+      <c r="AF223">
+        <v>1</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>1</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
+      <c r="AP223">
+        <v>0</v>
+      </c>
+      <c r="AQ223">
+        <v>0</v>
+      </c>
+      <c r="AR223">
+        <v>0</v>
+      </c>
+      <c r="AS223">
+        <v>0</v>
+      </c>
+      <c r="AT223">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:46">
+      <c r="A224" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
+      </c>
+      <c r="AC224">
+        <v>1</v>
+      </c>
+      <c r="AD224">
+        <v>1</v>
+      </c>
+      <c r="AE224">
+        <v>1</v>
+      </c>
+      <c r="AF224">
+        <v>1</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>1</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
+      <c r="AQ224">
+        <v>0</v>
+      </c>
+      <c r="AR224">
+        <v>0</v>
+      </c>
+      <c r="AS224">
+        <v>0</v>
+      </c>
+      <c r="AT224">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:46">
+      <c r="A225" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>1</v>
+      </c>
+      <c r="AE225">
+        <v>1</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>1</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
+      <c r="AQ225">
+        <v>0</v>
+      </c>
+      <c r="AR225">
+        <v>0</v>
+      </c>
+      <c r="AS225">
+        <v>0</v>
+      </c>
+      <c r="AT225">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:46">
+      <c r="A226" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>1</v>
+      </c>
+      <c r="AE226">
+        <v>1</v>
+      </c>
+      <c r="AF226">
+        <v>1</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>1</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <v>0</v>
+      </c>
+      <c r="AN226">
+        <v>0</v>
+      </c>
+      <c r="AO226">
+        <v>0</v>
+      </c>
+      <c r="AP226">
+        <v>0</v>
+      </c>
+      <c r="AQ226">
+        <v>0</v>
+      </c>
+      <c r="AR226">
+        <v>0</v>
+      </c>
+      <c r="AS226">
+        <v>0</v>
+      </c>
+      <c r="AT226">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:46">
+      <c r="A227" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>1</v>
+      </c>
+      <c r="AE227">
+        <v>1</v>
+      </c>
+      <c r="AF227">
+        <v>1</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>1</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>0</v>
+      </c>
+      <c r="AO227">
+        <v>0</v>
+      </c>
+      <c r="AP227">
+        <v>0</v>
+      </c>
+      <c r="AQ227">
+        <v>0</v>
+      </c>
+      <c r="AR227">
+        <v>0</v>
+      </c>
+      <c r="AS227">
+        <v>0</v>
+      </c>
+      <c r="AT227">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:46">
+      <c r="A228" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>1</v>
+      </c>
+      <c r="AE228">
+        <v>1</v>
+      </c>
+      <c r="AF228">
+        <v>1</v>
+      </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
+      <c r="AP228">
+        <v>0</v>
+      </c>
+      <c r="AQ228">
+        <v>0</v>
+      </c>
+      <c r="AR228">
+        <v>0</v>
+      </c>
+      <c r="AS228">
+        <v>0</v>
+      </c>
+      <c r="AT228">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="229" spans="1:46">
+      <c r="A229" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>1</v>
+      </c>
+      <c r="AE229">
+        <v>1</v>
+      </c>
+      <c r="AF229">
+        <v>1</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>1</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>0</v>
+      </c>
+      <c r="AO229">
+        <v>0</v>
+      </c>
+      <c r="AP229">
+        <v>0</v>
+      </c>
+      <c r="AQ229">
+        <v>0</v>
+      </c>
+      <c r="AR229">
+        <v>0</v>
+      </c>
+      <c r="AS229">
+        <v>0</v>
+      </c>
+      <c r="AT229">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="230" spans="1:46">
+      <c r="A230" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AC230">
+        <v>1</v>
+      </c>
+      <c r="AD230">
+        <v>1</v>
+      </c>
+      <c r="AE230">
+        <v>1</v>
+      </c>
+      <c r="AF230">
+        <v>1</v>
+      </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>1</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="231" spans="1:46">
+      <c r="A231" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>1</v>
+      </c>
+      <c r="AE231">
+        <v>1</v>
+      </c>
+      <c r="AF231">
+        <v>1</v>
+      </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
+      <c r="AQ231">
+        <v>0</v>
+      </c>
+      <c r="AR231">
+        <v>0</v>
+      </c>
+      <c r="AS231">
+        <v>0</v>
+      </c>
+      <c r="AT231">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="232" spans="1:46">
+      <c r="A232" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
+      </c>
+      <c r="AD232">
+        <v>1</v>
+      </c>
+      <c r="AE232">
+        <v>1</v>
+      </c>
+      <c r="AF232">
+        <v>1</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>1</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>0</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
+      <c r="AQ232">
+        <v>0</v>
+      </c>
+      <c r="AR232">
+        <v>0</v>
+      </c>
+      <c r="AS232">
+        <v>0</v>
+      </c>
+      <c r="AT232">
+        <v>0.4245370370333332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:46">
+      <c r="A233" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>1</v>
+      </c>
+      <c r="AE233">
+        <v>1</v>
+      </c>
+      <c r="AF233">
+        <v>1</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>1</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
+      <c r="AQ233">
+        <v>0</v>
+      </c>
+      <c r="AR233">
+        <v>0</v>
+      </c>
+      <c r="AS233">
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <v>0.4245370370333332</v>
       </c>
     </row>
   </sheetData>
